--- a/lab2_student.xlsx
+++ b/lab2_student.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>График функции y=sin(x)</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>etr</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>ertert</t>
   </si>
 </sst>
 </file>
@@ -703,7 +712,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B34"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,9 +805,8 @@
       <c r="A11" s="2">
         <v>-1.6</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,9 +822,8 @@
       <c r="A13" s="2">
         <v>-1.2</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,9 +875,8 @@
       <c r="A19" s="2">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
